--- a/biology/Zoologie/Heterothops/Heterothops.xlsx
+++ b/biology/Zoologie/Heterothops/Heterothops.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Heterothops est un genre d'insectes coléoptères de la famille des Staphylinidae.
 </t>
@@ -511,15 +523,17 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon NCBI  (13 novembre 2017)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon NCBI  (13 novembre 2017) :
 Heterothops dissimilis   
 Heterothops minutus   
 Heterothops niger   
 Heterothops quadripunctulus   
 Heterothops stiglundbergi
-Selon Catalogue of Life                                   (13 novembre 2017)[2] :
+Selon Catalogue of Life                                   (13 novembre 2017) :
 Heterothops baicalensis Fauvel,1900
 Heterothops bicolor Smetana,1975
 Heterothops cognatus Sharp,1874
@@ -529,8 +543,8 @@
 Heterothops praevius Erichson,1839
 Heterothops rotundiceps Sharp,1889
 Heterothops tzaw Smetana,1995
-Selon BioLib                    (13 novembre 2017)[3] : nombreuses espèces.
-Espèces européennes selon Fauna Europaea                                      (18 décembre 2022)[4] :
+Selon BioLib                    (13 novembre 2017) : nombreuses espèces.
+Espèces européennes selon Fauna Europaea                                      (18 décembre 2022) :
 Heterothops aquitanicus Coiffait, 1977
 Heterothops balthasari Smetana, 1967
 Heterothops binotatus (Gravenhorst, 1802)
